--- a/alu-4/testvektoren.xlsx
+++ b/alu-4/testvektoren.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="45">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>!Cout</t>
+  </si>
+  <si>
+    <t>Micorcode1</t>
+  </si>
+  <si>
+    <t>Microcode2</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>nicht vorgesehen</t>
+  </si>
+  <si>
+    <t>die letzten beiden übertragsstellen sind nicht gleich</t>
   </si>
 </sst>
 </file>
@@ -167,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -280,11 +295,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -296,6 +331,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -576,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +632,7 @@
     <col min="34" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -698,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,7 +831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -886,7 +925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +1304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1453,538 +1492,746 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="S17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="T17" s="3"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AG17" s="2"/>
-    </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="U17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="5"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
       <c r="U19" s="2"/>
@@ -1993,15 +2240,36 @@
       <c r="AC19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="3"/>
       <c r="U20" s="2"/>
@@ -2010,7 +2278,7 @@
       <c r="AC20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2027,7 +2295,7 @@
       <c r="AC21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2044,7 +2312,7 @@
       <c r="AC22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2061,7 +2329,7 @@
       <c r="AC23" s="2"/>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2078,7 +2346,7 @@
       <c r="AC24" s="2"/>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2095,7 +2363,7 @@
       <c r="AC25" s="2"/>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2112,7 +2380,7 @@
       <c r="AC26" s="2"/>
       <c r="AG26" s="2"/>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2129,7 +2397,7 @@
       <c r="AC27" s="2"/>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2146,7 +2414,7 @@
       <c r="AC28" s="2"/>
       <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2163,7 +2431,7 @@
       <c r="AC29" s="2"/>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2180,7 +2448,7 @@
       <c r="AC30" s="2"/>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2201,7 +2469,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K3:S3 H3:I3 D3 G3 J3 E3:F3 D4:T4 D6:T6 D5:T5 AB5:AE5 Y5 V5 U4:AG4 V3:AF3 U6:V8 U3 AG3 U5 Z5:AA5 AF5:AG5 D7:S8 T11 D10:AG10 D11:S11 U11:AG11 D9:V9 Y9:AG9 T12 D12:S12 U12:AG12 D13:S13 T13 D14:AG15 U13:AG13 Y6:AG8 X9 W6:X8 W5:X5 W9" numberStoredAsText="1"/>
+    <ignoredError sqref="K3:S3 H3:I3 D3 G3 J3 E3:F3 D4:T4 D6:T6 D5:T5 AB5:AE5 Y5 V5 U4:AG4 V3:AF3 U6:V8 U3 AG3 U5 Z5:AA5 AF5:AG5 D7:S8 T11 D10:AG10 D11:S11 U11:AG11 D9:V9 Y9:AG9 Y6:AG8 X9 W6:X8 W5:X5 W9 D12:AG13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/alu-4/testvektoren.xlsx
+++ b/alu-4/testvektoren.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/alu-4/testvektoren.xlsx
+++ b/alu-4/testvektoren.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,7 @@
         <v>32</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>32</v>
@@ -1365,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>32</v>
@@ -2034,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>32</v>
@@ -2469,7 +2469,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K3:S3 H3:I3 D3 G3 J3 E3:F3 D4:T4 D6:T6 D5:T5 AB5:AE5 Y5 V5 U4:AG4 V3:AF3 U6:V8 U3 AG3 U5 Z5:AA5 AF5:AG5 D7:S8 T11 D10:AG10 D11:S11 U11:AG11 D9:V9 Y9:AG9 Y6:AG8 X9 W6:X8 W5:X5 W9 D12:AG13" numberStoredAsText="1"/>
+    <ignoredError sqref="K3:S3 H3:I3 D3 G3 J3 E3:F3 D4:T4 D6:T6 D5:T5 AB5:AE5 Y5 V5 U4:AG4 V3:AF3 U6:V8 U3 AG3 U5 Z5:AA5 AF5:AG5 D7:S8 T11 D10:V10 D11:S11 U11:V11 D9:V9 Y9:AG9 Y6:AG8 X9 W6:X8 X5 D13:V13 X10:AG10 X11:AG11 D12:V12 X12:AG12 X13:AG13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>